--- a/记忆.xlsx
+++ b/记忆.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4361E060-AAD4-984D-A9B3-C81B0792BF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADAD31B-01CD-4EBE-B5BF-3E53D5B59A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6564" yWindow="1488" windowWidth="13080" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,167 +29,248 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>脾胃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>呕吐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>四七苓桂藿香呕 六君理中麦门冬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>胃痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一起笑忠良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t># 证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>寒热气血阴阳食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> + 保食 + 气柴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>腹痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> + 寒良 + 气柴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小大少 阳热血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>泄泻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>脾肾虚 寒热气食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活宝哥痛四神苓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>藿保葛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>痢疾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>虚寒阴 桃花不换车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>芍药 白头 连理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>便秘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>寒热气血阴阳虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>闻麻子溜润</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>增液济川黄芪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肺痈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无热 血 -&gt; 痰 + 保食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银翘苇桔沙参清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>哮 喘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 + 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉肾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 麻哮射干 25痰瘀 热哮定 需六君卖身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>感冒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>风寒暑气阴虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>荆银濡参玉竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>咳嗽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>寒热燥 痰肝火阴虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三拗桑苏菊 二陈沙参麦泻白散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活宝哥捅四神苓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三拗桑苏菊 二沙麦泻白</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喘</t>
+  </si>
+  <si>
+    <t>干麻热定 虚六君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二陈五磨痰郁痹 麻黄石甘脉肾虚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水肿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏凿饮子 五皮饮 越婢加术汤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脾肾虚 实脾肾气丸
+疮 连翘 渴 饮 水 皮 浮 术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2虚 疮渴水浮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石膏气血热劳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石 石 膏 分清 气 沉香 
+血 小蓟 热 八正 劳 山药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消渴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2虚2丸 肺胃热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六味地黄丸肾气丸 消渴方玉女煎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风寒湿 热 瘀虚
+风 乌 薏 白虎 双合 独活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃19肠19 肺25 肾6+6 消渴4 痹6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>薤白2 + 气柴 + 瘀逐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳 参附 气 生脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -201,6 +282,18 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -226,13 +319,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -240,6 +339,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -259,7 +426,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -572,29 +739,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="15.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,178 +773,272 @@
       <c r="C2" s="1">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>6</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1">
+    </row>
+    <row r="13" spans="1:6" ht="34.799999999999997">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34.799999999999997">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34.799999999999997">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -785,9 +1048,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -798,9 +1061,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/记忆.xlsx
+++ b/记忆.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADAD31B-01CD-4EBE-B5BF-3E53D5B59A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7E01B8-6EA9-4A48-8E58-4C604566C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6564" yWindow="1488" windowWidth="13080" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="中药" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
   <si>
     <t>脾胃</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>寒热燥 痰肝火阴虚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活宝哥捅四神苓</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +246,356 @@
   </si>
   <si>
     <t>阳 参附 气 生脉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰 火 瘀 血 肾虚
+定痫 龙 逐 归 左</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定痫丸 痰火瘀虚 龙珠归左</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>癫狂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>癫2 狂3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不寐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰逍遥 虚养心
+火生铁 瘀醒 二阴虚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙 血归 阴虚六</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝胆 痰温胆 胆 安神 六味地黄丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心悸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血阴阳虚 安神 血归 天王 桂枝
+瘀 桃 水肿 苓桂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活宝哥捅四神灵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝胆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄疸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒 血 犀角
+寒热 大柴胡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>茵陈 寒热湿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓胀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳寒热虚 气滞血瘀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一贯煎 肾气丸 气柴
+实寒 中热 调血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>外 寒热湿 川芎湿
+内 阳痰瘀虚 天麻逐四物大补</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒热川芎 阳痰天麻
+外湿
+内逐瘀虚大补虚四物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胁痛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天麻 2 血归 左归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气柴 逐瘀 泻龙 一贯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天麻 开窍 脱身
+语</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经络 天麻镇肝
+脏腑 生脉参附
+恢复 解语丹 瘀补 5 左归</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>气柴 血归 梅核气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心神狂 甘麦大枣汤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻4 齿2
+咳3 吐3
+便3 尿4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血归 4 鼻吐便尿
+鼻吐 2 泻龙
+鼻咳 2 燥桑菊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼻 2 胃火 玉女煎
+咳 2 泻白百合
+吐 2 热 泻心
+齿 2 地黄清胃
+尿 3 丸丸地黄山药小蓟
+便 2 肠胃 槐角 黄土</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀虫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重开温室花市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开窍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化湿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷君苦练飞虫兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常喝香槟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三仙莱稻芽鸡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妇闻酱香猪脚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后仓湿炒豆沙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补虚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重镇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>养心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎吃猪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>换皮脖子酸 养心止手疼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荆防姜苏麻桂香 藁白羌活细辛苍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漫谈 桑菊 割生菜 蝉和牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇煮山药 扁豆炒蜜枣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四物胶乌龙血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬竹百脉南北石斛精 别汗蒸猪狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔羊毛吃羊肉
+冻个沙司补益 肺肝脾
+精血 中断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>润</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小叶下荟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牵牛花挤碎水豆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 香 3 皮 3 子 黑白手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平肝息风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平肝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熄风</t>
+  </si>
+  <si>
+    <t>平民带着萝卜刺激母猪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小动物有毒无毒植物
+牛羊蜈蝎蚕龙天麻钩藤珠</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -339,74 +685,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,7 +704,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -739,20 +1017,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="A33:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="8.77734375" style="1"/>
+    <col min="1" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -760,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -851,7 +1129,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -899,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -907,13 +1185,13 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -947,92 +1225,290 @@
         <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34.799999999999997">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="38">
       <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="34.799999999999997">
-      <c r="A14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="34.799999999999997">
-      <c r="A16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="38">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="38">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="38">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1">
+      <c r="A23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="38">
+      <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="38">
+      <c r="A25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="57">
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="57">
+      <c r="A27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="114">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="38">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1044,12 +1520,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="E1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="2">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="2">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="57">
+      <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="2">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="2">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="2">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="38">
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="2">
+        <v>9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1061,7 +1874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/记忆.xlsx
+++ b/记忆.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7E01B8-6EA9-4A48-8E58-4C604566C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996DCAB2-519A-0C43-8493-E0D29DA8E163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="194">
   <si>
     <t>脾胃</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -596,6 +596,238 @@
   <si>
     <t>大小动物有毒无毒植物
 牛羊蜈蝎蚕龙天麻钩藤珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固表止汗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常呆憨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收涩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敛肺涩肠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固精止带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦麻根</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肥肠和豆豉五倍美味</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>春宵值千金 固海连山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鱼脸凉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化瘀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收敛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37 普降千花雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙鹤急收炭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱剂量 茅厕坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛经颇伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止痛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵童想要穿梭疆域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛风湿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌独仙刮舌喊疼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筋骨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧家狗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节纠结疼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛人鸡王挑一篮花生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指甲破三术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>土木童补借钱疗伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化痰止咳平喘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喊半天白花钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>止咳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三三两两痰热瓜
+海 藻昆布蛤壳 竹 立如天 贝 桔前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>书信纸百花 桑葶白琵琶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利水渗湿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退黄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护黄金城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通淋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统领去碧海试吃华夫饼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消肿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪仔夫人想家种瓜皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻毒杀虫</t>
+  </si>
+  <si>
+    <t>黄白黄 虫蜂蟾蛇床</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火燥凉毒虚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青白地银胡虚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三黄两皮龙胆草苦参</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燥湿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫水牛悬梁吃蛋黄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十亩栀子淡 夏天炉火明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1520,15 +1752,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="2"/>
@@ -1594,28 +1828,66 @@
         <v>102</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="2">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="2">
         <v>5</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="2">
         <v>6</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="2">
+      <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="2">
         <v>7</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="2">
         <v>8</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="2">
+      <c r="C13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1628,6 +1900,9 @@
       </c>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1642,6 +1917,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="B17" s="2">
         <v>9</v>
       </c>
@@ -1673,6 +1951,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B19" s="2">
         <v>23</v>
       </c>
@@ -1841,6 +2122,12 @@
       </c>
     </row>
     <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2">
+        <v>15</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>132</v>
       </c>
@@ -1851,7 +2138,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="38">
+    <row r="33" spans="1:5" ht="38">
+      <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2">
+        <v>15</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>133</v>
       </c>
@@ -1860,6 +2153,411 @@
       </c>
       <c r="E33" s="3" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="2">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="2">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="2">
+        <v>15</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="2">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="2">
+        <v>7</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2">
+        <v>15</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="2">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="2">
+        <v>15</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="2">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="2">
+        <v>5</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="2">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="2">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="2">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="2">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="2">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="2">
+        <v>25</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="2">
+        <v>25</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="2">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="2">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="2">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="2">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="2">
+        <v>6</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="2">
+        <v>25</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" s="2">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="38">
+      <c r="A59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="2">
+        <v>25</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="2">
+        <v>11</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="2">
+        <v>25</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="2">
+        <v>19</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="2">
+        <v>19</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="2">
+        <v>10</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B65" s="2">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="2">
+        <v>6</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="2">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/记忆.xlsx
+++ b/记忆.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996DCAB2-519A-0C43-8493-E0D29DA8E163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2765E37D-9928-E146-AAAB-E1AACD21EF5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="中药" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="方剂" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="224">
   <si>
     <t>脾胃</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -828,6 +829,127 @@
   </si>
   <si>
     <t>十亩栀子淡 夏天炉火明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱虫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌梅丸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛暑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六一如暑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑劈宝岛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温和保子宫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神枣天珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表里双解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>情歌皇打通宫里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>痈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>母羊危险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牡 苇 仙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三四小童鞋拆好板鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治燥剂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻宣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susan 桑心选清酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滋阴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾阴雨夜卖百合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小建中吴茱萸 四逆归逆暖肝经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄皮熊早起骂鸡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祛痰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喊 35 热情兄 疯半天 枣瓜十二担</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒 胸 风 燥 湿 胆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固涩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>彪悍非常带劲
+真神仙 牡蛎螵蛸黄虫经</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选定江苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勿要问候 桔白瓜夏后才熟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1754,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2567,6 +2689,238 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FEB4A7-B827-C345-9F50-9F0CF117EE4B}">
+  <dimension ref="A2:F59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="38">
+      <c r="A16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="C19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
